--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2385" yWindow="1470" windowWidth="21420" windowHeight="12090" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1620" yWindow="1665" windowWidth="21420" windowHeight="10605" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proposed Appendix A" sheetId="1" state="visible" r:id="rId1"/>
@@ -755,8 +755,8 @@
   </sheetPr>
   <dimension ref="A1:AC999"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G25" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1094,55 +1094,41 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I10" s="17" t="inlineStr">
-        <is>
-          <t>3400.0</t>
-        </is>
+      <c r="I10" s="17" t="n">
+        <v>3400</v>
       </c>
       <c r="J10" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" s="17" t="inlineStr">
-        <is>
-          <t>3304.0</t>
-        </is>
-      </c>
-      <c r="L10" s="17" t="inlineStr">
-        <is>
-          <t>3311.0</t>
-        </is>
-      </c>
-      <c r="M10" s="17" t="inlineStr">
-        <is>
-          <t>3404.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" s="17" t="n">
+        <v>3304</v>
+      </c>
+      <c r="L10" s="17" t="n">
+        <v>3311</v>
+      </c>
+      <c r="M10" s="17" t="n">
+        <v>3404</v>
       </c>
       <c r="N10" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O10" s="17" t="inlineStr">
-        <is>
-          <t>2802</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O10" s="17" t="n">
+        <v>2802</v>
       </c>
       <c r="P10" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q10" s="17" t="inlineStr">
-        <is>
-          <t>2702.0</t>
-        </is>
-      </c>
-      <c r="R10" s="17" t="inlineStr">
-        <is>
-          <t>2802</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q10" s="17" t="n">
+        <v>2702</v>
+      </c>
+      <c r="R10" s="17" t="n">
+        <v>2702</v>
       </c>
       <c r="S10" s="22" t="inlineStr">
         <is>
@@ -1205,55 +1191,41 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I11" s="17" t="inlineStr">
-        <is>
-          <t>2808.0</t>
-        </is>
-      </c>
-      <c r="J11" s="17" t="inlineStr">
-        <is>
-          <t>2808.0</t>
-        </is>
-      </c>
-      <c r="K11" s="17" t="inlineStr">
-        <is>
-          <t>2611.0</t>
-        </is>
+      <c r="I11" s="17" t="n">
+        <v>2808</v>
+      </c>
+      <c r="J11" s="17" t="n">
+        <v>2808</v>
+      </c>
+      <c r="K11" s="17" t="n">
+        <v>2611</v>
       </c>
       <c r="L11" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M11" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" s="17" t="inlineStr">
-        <is>
-          <t>2605.0</t>
-        </is>
-      </c>
-      <c r="O11" s="17" t="inlineStr">
-        <is>
-          <t>2408</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N11" s="17" t="n">
+        <v>2605</v>
+      </c>
+      <c r="O11" s="17" t="n">
+        <v>2408</v>
       </c>
       <c r="P11" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q11" s="17" t="inlineStr">
-        <is>
-          <t>2305.0</t>
-        </is>
-      </c>
-      <c r="R11" s="17" t="inlineStr">
-        <is>
-          <t>2408</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q11" s="17" t="n">
+        <v>2305</v>
+      </c>
+      <c r="R11" s="17" t="n">
+        <v>2305</v>
       </c>
       <c r="S11" s="22" t="inlineStr">
         <is>
@@ -1318,55 +1290,41 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I12" s="17" t="inlineStr">
-        <is>
-          <t>2702.0</t>
-        </is>
-      </c>
-      <c r="J12" s="17" t="inlineStr">
-        <is>
-          <t>2702.0</t>
-        </is>
-      </c>
-      <c r="K12" s="17" t="inlineStr">
-        <is>
-          <t>2509.0</t>
-        </is>
+      <c r="I12" s="17" t="n">
+        <v>2702</v>
+      </c>
+      <c r="J12" s="17" t="n">
+        <v>2702</v>
+      </c>
+      <c r="K12" s="17" t="n">
+        <v>2509</v>
       </c>
       <c r="L12" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M12" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N12" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O12" s="17" t="inlineStr">
-        <is>
-          <t>2206</t>
-        </is>
-      </c>
-      <c r="P12" s="17" t="inlineStr">
-        <is>
-          <t>2003.0</t>
-        </is>
-      </c>
-      <c r="Q12" s="17" t="inlineStr">
-        <is>
-          <t>2306.0</t>
-        </is>
-      </c>
-      <c r="R12" s="17" t="inlineStr">
-        <is>
-          <t>2206</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O12" s="17" t="n">
+        <v>2206</v>
+      </c>
+      <c r="P12" s="17" t="n">
+        <v>2003</v>
+      </c>
+      <c r="Q12" s="17" t="n">
+        <v>2306</v>
+      </c>
+      <c r="R12" s="17" t="n">
+        <v>2306</v>
       </c>
       <c r="S12" s="22" t="inlineStr">
         <is>
@@ -1433,55 +1391,41 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I13" s="17" t="inlineStr">
-        <is>
-          <t>2500.0</t>
-        </is>
-      </c>
-      <c r="J13" s="17" t="inlineStr">
-        <is>
-          <t>2500.0</t>
-        </is>
-      </c>
-      <c r="K13" s="17" t="inlineStr">
-        <is>
-          <t>2302.0</t>
-        </is>
+      <c r="I13" s="17" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J13" s="17" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K13" s="17" t="n">
+        <v>2302</v>
       </c>
       <c r="L13" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M13" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N13" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O13" s="17" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="P13" s="17" t="inlineStr">
-        <is>
-          <t>1807.0</t>
-        </is>
-      </c>
-      <c r="Q13" s="17" t="inlineStr">
-        <is>
-          <t>2102.0</t>
-        </is>
-      </c>
-      <c r="R13" s="17" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O13" s="17" t="n">
+        <v>2001</v>
+      </c>
+      <c r="P13" s="17" t="n">
+        <v>1807</v>
+      </c>
+      <c r="Q13" s="17" t="n">
+        <v>2102</v>
+      </c>
+      <c r="R13" s="17" t="n">
+        <v>2102</v>
       </c>
       <c r="S13" s="22" t="inlineStr">
         <is>
@@ -1545,55 +1489,39 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I14" s="17" t="inlineStr">
-        <is>
-          <t>2608.0</t>
-        </is>
-      </c>
-      <c r="J14" s="17" t="inlineStr">
-        <is>
-          <t>2608.0</t>
-        </is>
-      </c>
-      <c r="K14" s="17" t="inlineStr">
-        <is>
-          <t>2511.0</t>
-        </is>
+      <c r="I14" s="17" t="n">
+        <v>2608</v>
+      </c>
+      <c r="J14" s="17" t="n">
+        <v>2608</v>
+      </c>
+      <c r="K14" s="17" t="n">
+        <v>2511</v>
       </c>
       <c r="L14" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M14" s="17" t="inlineStr">
-        <is>
-          <t>2600.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M14" s="17" t="n">
+        <v>2600</v>
       </c>
       <c r="N14" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O14" s="17" t="inlineStr">
-        <is>
-          <t>2106</t>
-        </is>
-      </c>
-      <c r="P14" s="17" t="inlineStr">
-        <is>
-          <t>2206.0</t>
-        </is>
-      </c>
-      <c r="Q14" s="17" t="inlineStr">
-        <is>
-          <t>2306.0</t>
-        </is>
-      </c>
-      <c r="R14" s="17" t="inlineStr">
-        <is>
-          <t>2106</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O14" s="17" t="n">
+        <v>2106</v>
+      </c>
+      <c r="P14" s="17" t="n">
+        <v>2206</v>
+      </c>
+      <c r="Q14" s="17" t="n">
+        <v>2306</v>
+      </c>
+      <c r="R14" s="17" t="n">
+        <v>2306</v>
       </c>
       <c r="S14" s="22" t="inlineStr">
         <is>
@@ -1659,55 +1587,41 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I15" s="17" t="inlineStr">
-        <is>
-          <t>3008.0</t>
-        </is>
-      </c>
-      <c r="J15" s="17" t="inlineStr">
-        <is>
-          <t>3008.0</t>
-        </is>
-      </c>
-      <c r="K15" s="17" t="inlineStr">
-        <is>
-          <t>2808.0</t>
-        </is>
+      <c r="I15" s="17" t="n">
+        <v>3008</v>
+      </c>
+      <c r="J15" s="17" t="n">
+        <v>3008</v>
+      </c>
+      <c r="K15" s="17" t="n">
+        <v>2808</v>
       </c>
       <c r="L15" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M15" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N15" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O15" s="17" t="inlineStr">
-        <is>
-          <t>2509</t>
-        </is>
-      </c>
-      <c r="P15" s="17" t="inlineStr">
-        <is>
-          <t>2204.0</t>
-        </is>
-      </c>
-      <c r="Q15" s="17" t="inlineStr">
-        <is>
-          <t>2606.0</t>
-        </is>
-      </c>
-      <c r="R15" s="17" t="inlineStr">
-        <is>
-          <t>2506</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O15" s="17" t="n">
+        <v>2509</v>
+      </c>
+      <c r="P15" s="17" t="n">
+        <v>2204</v>
+      </c>
+      <c r="Q15" s="17" t="n">
+        <v>2606</v>
+      </c>
+      <c r="R15" s="17" t="n">
+        <v>2606</v>
       </c>
       <c r="S15" s="22" t="inlineStr">
         <is>
@@ -1772,55 +1686,39 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I16" s="17" t="inlineStr">
-        <is>
-          <t>3006.0</t>
-        </is>
-      </c>
-      <c r="J16" s="17" t="inlineStr">
-        <is>
-          <t>3006.0</t>
-        </is>
-      </c>
-      <c r="K16" s="17" t="inlineStr">
-        <is>
-          <t>2904.0</t>
-        </is>
+      <c r="I16" s="17" t="n">
+        <v>3006</v>
+      </c>
+      <c r="J16" s="17" t="n">
+        <v>3006</v>
+      </c>
+      <c r="K16" s="17" t="n">
+        <v>2904</v>
       </c>
       <c r="L16" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M16" s="17" t="inlineStr">
-        <is>
-          <t>3000.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M16" s="17" t="n">
+        <v>3000</v>
       </c>
       <c r="N16" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O16" s="17" t="inlineStr">
-        <is>
-          <t>2304</t>
-        </is>
-      </c>
-      <c r="P16" s="17" t="inlineStr">
-        <is>
-          <t>2100.0</t>
-        </is>
-      </c>
-      <c r="Q16" s="17" t="inlineStr">
-        <is>
-          <t>2404.0</t>
-        </is>
-      </c>
-      <c r="R16" s="17" t="inlineStr">
-        <is>
-          <t>2304</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O16" s="17" t="n">
+        <v>2304</v>
+      </c>
+      <c r="P16" s="17" t="n">
+        <v>2100</v>
+      </c>
+      <c r="Q16" s="17" t="n">
+        <v>2404</v>
+      </c>
+      <c r="R16" s="17" t="n">
+        <v>2404</v>
       </c>
       <c r="S16" s="22" t="inlineStr">
         <is>
@@ -1883,55 +1781,41 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I17" s="17" t="inlineStr">
-        <is>
-          <t>2910.0</t>
-        </is>
-      </c>
-      <c r="J17" s="17" t="inlineStr">
-        <is>
-          <t>2910.0</t>
-        </is>
-      </c>
-      <c r="K17" s="17" t="inlineStr">
-        <is>
-          <t>2902.0</t>
-        </is>
+      <c r="I17" s="17" t="n">
+        <v>2910</v>
+      </c>
+      <c r="J17" s="17" t="n">
+        <v>2910</v>
+      </c>
+      <c r="K17" s="17" t="n">
+        <v>2902</v>
       </c>
       <c r="L17" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M17" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N17" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O17" s="17" t="inlineStr">
-        <is>
-          <t>2505</t>
-        </is>
-      </c>
-      <c r="P17" s="17" t="inlineStr">
-        <is>
-          <t>2500.0</t>
-        </is>
-      </c>
-      <c r="Q17" s="17" t="inlineStr">
-        <is>
-          <t>2511.0</t>
-        </is>
-      </c>
-      <c r="R17" s="17" t="inlineStr">
-        <is>
-          <t>2411</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O17" s="17" t="n">
+        <v>2505</v>
+      </c>
+      <c r="P17" s="17" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q17" s="17" t="n">
+        <v>2511</v>
+      </c>
+      <c r="R17" s="17" t="n">
+        <v>2511</v>
       </c>
       <c r="S17" s="22" t="inlineStr">
         <is>
@@ -1999,53 +1883,41 @@
       </c>
       <c r="I18" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J18" s="17" t="inlineStr">
-        <is>
-          <t>2508.0</t>
-        </is>
-      </c>
-      <c r="K18" s="17" t="inlineStr">
-        <is>
-          <t>2500.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J18" s="17" t="n">
+        <v>2508</v>
+      </c>
+      <c r="K18" s="17" t="n">
+        <v>2500</v>
       </c>
       <c r="L18" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M18" s="17" t="inlineStr">
-        <is>
-          <t>2510.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M18" s="17" t="n">
+        <v>2510</v>
       </c>
       <c r="N18" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O18" s="17" t="inlineStr">
-        <is>
-          <t>2304</t>
-        </is>
-      </c>
-      <c r="P18" s="17" t="inlineStr">
-        <is>
-          <t>2209.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O18" s="17" t="n">
+        <v>2304</v>
+      </c>
+      <c r="P18" s="17" t="n">
+        <v>2209</v>
       </c>
       <c r="Q18" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R18" s="17" t="inlineStr">
-        <is>
-          <t>2108</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R18" s="17" t="n">
+        <v>2108</v>
       </c>
       <c r="S18" s="22" t="inlineStr">
         <is>
@@ -2116,53 +1988,41 @@
       </c>
       <c r="I19" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J19" s="17" t="inlineStr">
-        <is>
-          <t>2200.0</t>
-        </is>
-      </c>
-      <c r="K19" s="17" t="inlineStr">
-        <is>
-          <t>2105.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J19" s="17" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K19" s="17" t="n">
+        <v>2105</v>
       </c>
       <c r="L19" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M19" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N19" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O19" s="17" t="inlineStr">
-        <is>
-          <t>1806</t>
-        </is>
-      </c>
-      <c r="P19" s="17" t="inlineStr">
-        <is>
-          <t>1706.0</t>
-        </is>
-      </c>
-      <c r="Q19" s="17" t="inlineStr">
-        <is>
-          <t>1906.0</t>
-        </is>
-      </c>
-      <c r="R19" s="17" t="inlineStr">
-        <is>
-          <t>1806</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O19" s="17" t="n">
+        <v>1806</v>
+      </c>
+      <c r="P19" s="17" t="n">
+        <v>1706</v>
+      </c>
+      <c r="Q19" s="17" t="n">
+        <v>1906</v>
+      </c>
+      <c r="R19" s="17" t="n">
+        <v>1906</v>
       </c>
       <c r="S19" s="22" t="inlineStr">
         <is>
@@ -2229,53 +2089,45 @@
       </c>
       <c r="I20" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J20" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K20" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L20" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M20" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N20" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O20" s="17" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-      <c r="P20" s="17" t="inlineStr">
-        <is>
-          <t>2308.0</t>
-        </is>
-      </c>
-      <c r="Q20" s="17" t="inlineStr">
-        <is>
-          <t>2404.0</t>
-        </is>
-      </c>
-      <c r="R20" s="17" t="inlineStr">
-        <is>
-          <t>2304</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O20" s="17" t="n">
+        <v>2400</v>
+      </c>
+      <c r="P20" s="17" t="n">
+        <v>2308</v>
+      </c>
+      <c r="Q20" s="17" t="n">
+        <v>2404</v>
+      </c>
+      <c r="R20" s="17" t="n">
+        <v>2404</v>
       </c>
       <c r="S20" s="22" t="inlineStr">
         <is>
@@ -2342,53 +2194,45 @@
       </c>
       <c r="I21" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J21" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K21" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L21" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M21" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N21" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O21" s="17" t="inlineStr">
-        <is>
-          <t>1910</t>
-        </is>
-      </c>
-      <c r="P21" s="17" t="inlineStr">
-        <is>
-          <t>1807.0</t>
-        </is>
-      </c>
-      <c r="Q21" s="17" t="inlineStr">
-        <is>
-          <t>2010.0</t>
-        </is>
-      </c>
-      <c r="R21" s="17" t="inlineStr">
-        <is>
-          <t>1910</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O21" s="17" t="n">
+        <v>1910</v>
+      </c>
+      <c r="P21" s="17" t="n">
+        <v>1807</v>
+      </c>
+      <c r="Q21" s="17" t="n">
+        <v>2010</v>
+      </c>
+      <c r="R21" s="17" t="n">
+        <v>2010</v>
       </c>
       <c r="S21" s="22" t="inlineStr">
         <is>
@@ -2453,53 +2297,41 @@
       </c>
       <c r="I22" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J22" s="17" t="inlineStr">
-        <is>
-          <t>2505.0</t>
-        </is>
-      </c>
-      <c r="K22" s="17" t="inlineStr">
-        <is>
-          <t>2500.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J22" s="17" t="n">
+        <v>2505</v>
+      </c>
+      <c r="K22" s="17" t="n">
+        <v>2500</v>
       </c>
       <c r="L22" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M22" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N22" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O22" s="17" t="inlineStr">
-        <is>
-          <t>2210</t>
-        </is>
-      </c>
-      <c r="P22" s="17" t="inlineStr">
-        <is>
-          <t>2205.0</t>
-        </is>
-      </c>
-      <c r="Q22" s="17" t="inlineStr">
-        <is>
-          <t>2303.0</t>
-        </is>
-      </c>
-      <c r="R22" s="17" t="inlineStr">
-        <is>
-          <t>2101</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O22" s="17" t="n">
+        <v>2210</v>
+      </c>
+      <c r="P22" s="17" t="n">
+        <v>2205</v>
+      </c>
+      <c r="Q22" s="17" t="n">
+        <v>2303</v>
+      </c>
+      <c r="R22" s="17" t="n">
+        <v>2303</v>
       </c>
       <c r="S22" s="22" t="inlineStr">
         <is>
@@ -2572,53 +2404,45 @@
       </c>
       <c r="I23" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J23" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K23" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L23" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M23" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N23" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O23" s="17" t="inlineStr">
-        <is>
-          <t>2409</t>
-        </is>
-      </c>
-      <c r="P23" s="17" t="inlineStr">
-        <is>
-          <t>2309.0</t>
-        </is>
-      </c>
-      <c r="Q23" s="17" t="inlineStr">
-        <is>
-          <t>2506.0</t>
-        </is>
-      </c>
-      <c r="R23" s="17" t="inlineStr">
-        <is>
-          <t>2409</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O23" s="17" t="n">
+        <v>2409</v>
+      </c>
+      <c r="P23" s="17" t="n">
+        <v>2309</v>
+      </c>
+      <c r="Q23" s="17" t="n">
+        <v>2506</v>
+      </c>
+      <c r="R23" s="17" t="n">
+        <v>2506</v>
       </c>
       <c r="S23" s="22" t="inlineStr">
         <is>
@@ -2681,55 +2505,45 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I24" s="17" t="inlineStr">
-        <is>
-          <t>2700.0</t>
-        </is>
+      <c r="I24" s="17" t="n">
+        <v>2700</v>
       </c>
       <c r="J24" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K24" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L24" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M24" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N24" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O24" s="17" t="inlineStr">
-        <is>
-          <t>2107</t>
-        </is>
-      </c>
-      <c r="P24" s="17" t="inlineStr">
-        <is>
-          <t>2005.0</t>
-        </is>
-      </c>
-      <c r="Q24" s="17" t="inlineStr">
-        <is>
-          <t>2210.0</t>
-        </is>
-      </c>
-      <c r="R24" s="17" t="inlineStr">
-        <is>
-          <t>2107</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O24" s="17" t="n">
+        <v>2107</v>
+      </c>
+      <c r="P24" s="17" t="n">
+        <v>2005</v>
+      </c>
+      <c r="Q24" s="17" t="n">
+        <v>2210</v>
+      </c>
+      <c r="R24" s="17" t="n">
+        <v>2210</v>
       </c>
       <c r="S24" s="22" t="inlineStr">
         <is>
@@ -2794,53 +2608,45 @@
       </c>
       <c r="I25" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J25" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K25" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L25" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M25" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N25" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O25" s="17" t="inlineStr">
-        <is>
-          <t>1910</t>
-        </is>
-      </c>
-      <c r="P25" s="17" t="inlineStr">
-        <is>
-          <t>1810.0</t>
-        </is>
-      </c>
-      <c r="Q25" s="17" t="inlineStr">
-        <is>
-          <t>2107.0</t>
-        </is>
-      </c>
-      <c r="R25" s="17" t="inlineStr">
-        <is>
-          <t>1910</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O25" s="17" t="n">
+        <v>1910</v>
+      </c>
+      <c r="P25" s="17" t="n">
+        <v>1810</v>
+      </c>
+      <c r="Q25" s="17" t="n">
+        <v>2107</v>
+      </c>
+      <c r="R25" s="17" t="n">
+        <v>2107</v>
       </c>
       <c r="S25" s="22" t="inlineStr">
         <is>
@@ -2903,55 +2709,45 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I26" s="17" t="inlineStr">
-        <is>
-          <t>2508.0</t>
-        </is>
+      <c r="I26" s="17" t="n">
+        <v>2508</v>
       </c>
       <c r="J26" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K26" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L26" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M26" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N26" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O26" s="17" t="inlineStr">
-        <is>
-          <t>2305</t>
-        </is>
-      </c>
-      <c r="P26" s="17" t="inlineStr">
-        <is>
-          <t>2300.0</t>
-        </is>
-      </c>
-      <c r="Q26" s="17" t="inlineStr">
-        <is>
-          <t>2400.0</t>
-        </is>
-      </c>
-      <c r="R26" s="17" t="inlineStr">
-        <is>
-          <t>2104</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O26" s="17" t="n">
+        <v>2305</v>
+      </c>
+      <c r="P26" s="17" t="n">
+        <v>2300</v>
+      </c>
+      <c r="Q26" s="17" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R26" s="17" t="n">
+        <v>2400</v>
       </c>
       <c r="S26" s="22" t="inlineStr">
         <is>
@@ -3018,55 +2814,39 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I27" s="17" t="inlineStr">
-        <is>
-          <t>2502.0</t>
-        </is>
-      </c>
-      <c r="J27" s="17" t="inlineStr">
-        <is>
-          <t>2502.0</t>
-        </is>
-      </c>
-      <c r="K27" s="17" t="inlineStr">
-        <is>
-          <t>2404.0</t>
-        </is>
+      <c r="I27" s="17" t="n">
+        <v>2502</v>
+      </c>
+      <c r="J27" s="17" t="n">
+        <v>2502</v>
+      </c>
+      <c r="K27" s="17" t="n">
+        <v>2404</v>
       </c>
       <c r="L27" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M27" s="17" t="inlineStr">
-        <is>
-          <t>2502.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M27" s="17" t="n">
+        <v>2502</v>
       </c>
       <c r="N27" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O27" s="17" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="P27" s="17" t="inlineStr">
-        <is>
-          <t>1808.0</t>
-        </is>
-      </c>
-      <c r="Q27" s="17" t="inlineStr">
-        <is>
-          <t>2103.0</t>
-        </is>
-      </c>
-      <c r="R27" s="17" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O27" s="17" t="n">
+        <v>2001</v>
+      </c>
+      <c r="P27" s="17" t="n">
+        <v>1808</v>
+      </c>
+      <c r="Q27" s="17" t="n">
+        <v>2103</v>
+      </c>
+      <c r="R27" s="17" t="n">
+        <v>2103</v>
       </c>
       <c r="S27" s="22" t="inlineStr">
         <is>
@@ -3129,55 +2909,41 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I28" s="17" t="inlineStr">
-        <is>
-          <t>2707.0</t>
-        </is>
-      </c>
-      <c r="J28" s="17" t="inlineStr">
-        <is>
-          <t>2707.0</t>
-        </is>
-      </c>
-      <c r="K28" s="17" t="inlineStr">
-        <is>
-          <t>2700.0</t>
-        </is>
+      <c r="I28" s="17" t="n">
+        <v>2707</v>
+      </c>
+      <c r="J28" s="17" t="n">
+        <v>2707</v>
+      </c>
+      <c r="K28" s="17" t="n">
+        <v>2700</v>
       </c>
       <c r="L28" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M28" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N28" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O28" s="17" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-      <c r="P28" s="17" t="inlineStr">
-        <is>
-          <t>2205.0</t>
-        </is>
-      </c>
-      <c r="Q28" s="17" t="inlineStr">
-        <is>
-          <t>2304.0</t>
-        </is>
-      </c>
-      <c r="R28" s="17" t="inlineStr">
-        <is>
-          <t>2204</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O28" s="17" t="n">
+        <v>2300</v>
+      </c>
+      <c r="P28" s="17" t="n">
+        <v>2205</v>
+      </c>
+      <c r="Q28" s="17" t="n">
+        <v>2304</v>
+      </c>
+      <c r="R28" s="17" t="n">
+        <v>2304</v>
       </c>
       <c r="S28" s="22" t="inlineStr">
         <is>
@@ -3242,55 +3008,43 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I29" s="17" t="inlineStr">
-        <is>
-          <t>2805.0</t>
-        </is>
-      </c>
-      <c r="J29" s="17" t="inlineStr">
-        <is>
-          <t>2805.0</t>
-        </is>
-      </c>
-      <c r="K29" s="17" t="inlineStr">
-        <is>
-          <t>2800.0</t>
-        </is>
+      <c r="I29" s="17" t="n">
+        <v>2805</v>
+      </c>
+      <c r="J29" s="17" t="n">
+        <v>2805</v>
+      </c>
+      <c r="K29" s="17" t="n">
+        <v>2800</v>
       </c>
       <c r="L29" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M29" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N29" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O29" s="17" t="inlineStr">
-        <is>
-          <t>2503</t>
-        </is>
-      </c>
-      <c r="P29" s="17" t="inlineStr">
-        <is>
-          <t>2405.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O29" s="17" t="n">
+        <v>2503</v>
+      </c>
+      <c r="P29" s="17" t="n">
+        <v>2405</v>
       </c>
       <c r="Q29" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R29" s="17" t="inlineStr">
-        <is>
-          <t>24' 08''</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R29" s="17" t="n">
+        <v>2408</v>
       </c>
       <c r="S29" s="22" t="inlineStr">
         <is>
@@ -3356,55 +3110,43 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I30" s="17" t="inlineStr">
-        <is>
-          <t>2808.0</t>
-        </is>
-      </c>
-      <c r="J30" s="17" t="inlineStr">
-        <is>
-          <t>2808.0</t>
-        </is>
-      </c>
-      <c r="K30" s="17" t="inlineStr">
-        <is>
-          <t>2800.0</t>
-        </is>
+      <c r="I30" s="17" t="n">
+        <v>2808</v>
+      </c>
+      <c r="J30" s="17" t="n">
+        <v>2808</v>
+      </c>
+      <c r="K30" s="17" t="n">
+        <v>2800</v>
       </c>
       <c r="L30" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M30" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N30" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O30" s="17" t="inlineStr">
-        <is>
-          <t>2405</t>
-        </is>
-      </c>
-      <c r="P30" s="17" t="inlineStr">
-        <is>
-          <t>2400.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O30" s="17" t="n">
+        <v>2405</v>
+      </c>
+      <c r="P30" s="17" t="n">
+        <v>2400</v>
       </c>
       <c r="Q30" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R30" s="17" t="inlineStr">
-        <is>
-          <t>2405</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R30" s="17" t="n">
+        <v>2405</v>
       </c>
       <c r="S30" s="22" t="inlineStr">
         <is>
@@ -3467,55 +3209,41 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I31" s="17" t="inlineStr">
-        <is>
-          <t>2500.0</t>
-        </is>
-      </c>
-      <c r="J31" s="17" t="inlineStr">
-        <is>
-          <t>2500.0</t>
-        </is>
-      </c>
-      <c r="K31" s="17" t="inlineStr">
-        <is>
-          <t>2405.0</t>
-        </is>
+      <c r="I31" s="17" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J31" s="17" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K31" s="17" t="n">
+        <v>2405</v>
       </c>
       <c r="L31" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M31" s="17" t="inlineStr">
-        <is>
-          <t>2408.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M31" s="17" t="n">
+        <v>2408</v>
       </c>
       <c r="N31" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O31" s="17" t="inlineStr">
-        <is>
-          <t>2202</t>
-        </is>
-      </c>
-      <c r="P31" s="17" t="inlineStr">
-        <is>
-          <t>2106.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O31" s="17" t="n">
+        <v>2202</v>
+      </c>
+      <c r="P31" s="17" t="n">
+        <v>2106</v>
       </c>
       <c r="Q31" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R31" s="17" t="inlineStr">
-        <is>
-          <t>2202</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R31" s="17" t="n">
+        <v>2202</v>
       </c>
       <c r="S31" s="22" t="inlineStr">
         <is>
@@ -3584,55 +3312,41 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I32" s="17" t="inlineStr">
-        <is>
-          <t>2211.0</t>
-        </is>
-      </c>
-      <c r="J32" s="17" t="inlineStr">
-        <is>
-          <t>2211.0</t>
-        </is>
-      </c>
-      <c r="K32" s="17" t="inlineStr">
-        <is>
-          <t>2200.0</t>
-        </is>
+      <c r="I32" s="17" t="n">
+        <v>2211</v>
+      </c>
+      <c r="J32" s="17" t="n">
+        <v>2211</v>
+      </c>
+      <c r="K32" s="17" t="n">
+        <v>2200</v>
       </c>
       <c r="L32" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M32" s="17" t="inlineStr">
-        <is>
-          <t>2300.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M32" s="17" t="n">
+        <v>2300</v>
       </c>
       <c r="N32" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O32" s="17" t="inlineStr">
-        <is>
-          <t>1803</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O32" s="17" t="n">
+        <v>1803</v>
       </c>
       <c r="P32" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q32" s="17" t="inlineStr">
-        <is>
-          <t>1903.0</t>
-        </is>
-      </c>
-      <c r="R32" s="17" t="inlineStr">
-        <is>
-          <t>1803</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q32" s="17" t="n">
+        <v>1903</v>
+      </c>
+      <c r="R32" s="17" t="n">
+        <v>1903</v>
       </c>
       <c r="S32" s="22" t="inlineStr">
         <is>
@@ -3695,55 +3409,43 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I33" s="17" t="inlineStr">
-        <is>
-          <t>2210.0</t>
-        </is>
-      </c>
-      <c r="J33" s="17" t="inlineStr">
-        <is>
-          <t>2210.0</t>
-        </is>
-      </c>
-      <c r="K33" s="17" t="inlineStr">
-        <is>
-          <t>2201.0</t>
-        </is>
+      <c r="I33" s="17" t="n">
+        <v>2210</v>
+      </c>
+      <c r="J33" s="17" t="n">
+        <v>2210</v>
+      </c>
+      <c r="K33" s="17" t="n">
+        <v>2201</v>
       </c>
       <c r="L33" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M33" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N33" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O33" s="17" t="inlineStr">
-        <is>
-          <t>1801</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O33" s="17" t="n">
+        <v>1801</v>
       </c>
       <c r="P33" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q33" s="17" t="inlineStr">
-        <is>
-          <t>1904.0</t>
-        </is>
-      </c>
-      <c r="R33" s="17" t="inlineStr">
-        <is>
-          <t>1801</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q33" s="17" t="n">
+        <v>1904</v>
+      </c>
+      <c r="R33" s="17" t="n">
+        <v>1904</v>
       </c>
       <c r="S33" s="22" t="inlineStr">
         <is>
@@ -3806,55 +3508,41 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I34" s="17" t="inlineStr">
-        <is>
-          <t>2409.0</t>
-        </is>
-      </c>
-      <c r="J34" s="17" t="inlineStr">
-        <is>
-          <t>2409.0</t>
-        </is>
-      </c>
-      <c r="K34" s="17" t="inlineStr">
-        <is>
-          <t>2400.0</t>
-        </is>
+      <c r="I34" s="17" t="n">
+        <v>2409</v>
+      </c>
+      <c r="J34" s="17" t="n">
+        <v>2409</v>
+      </c>
+      <c r="K34" s="17" t="n">
+        <v>2400</v>
       </c>
       <c r="L34" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M34" s="17" t="inlineStr">
-        <is>
-          <t>2503.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M34" s="17" t="n">
+        <v>2503</v>
       </c>
       <c r="N34" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O34" s="17" t="inlineStr">
-        <is>
-          <t>1800</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O34" s="17" t="n">
+        <v>1800</v>
       </c>
       <c r="P34" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q34" s="17" t="inlineStr">
-        <is>
-          <t>1808.0</t>
-        </is>
-      </c>
-      <c r="R34" s="17" t="inlineStr">
-        <is>
-          <t>1800</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q34" s="17" t="n">
+        <v>1808</v>
+      </c>
+      <c r="R34" s="17" t="n">
+        <v>1808</v>
       </c>
       <c r="S34" s="22" t="inlineStr">
         <is>
@@ -3917,55 +3605,41 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I35" s="17" t="inlineStr">
-        <is>
-          <t>2201.0</t>
-        </is>
-      </c>
-      <c r="J35" s="17" t="inlineStr">
-        <is>
-          <t>2201.0</t>
-        </is>
-      </c>
-      <c r="K35" s="17" t="inlineStr">
-        <is>
-          <t>2105.0</t>
-        </is>
+      <c r="I35" s="17" t="n">
+        <v>2201</v>
+      </c>
+      <c r="J35" s="17" t="n">
+        <v>2201</v>
+      </c>
+      <c r="K35" s="17" t="n">
+        <v>2105</v>
       </c>
       <c r="L35" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M35" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N35" s="17" t="inlineStr">
-        <is>
-          <t>2100.0</t>
-        </is>
-      </c>
-      <c r="O35" s="17" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N35" s="17" t="n">
+        <v>2100</v>
+      </c>
+      <c r="O35" s="17" t="n">
+        <v>1700</v>
       </c>
       <c r="P35" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q35" s="17" t="inlineStr">
-        <is>
-          <t>1802.0</t>
-        </is>
-      </c>
-      <c r="R35" s="17" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q35" s="17" t="n">
+        <v>1802</v>
+      </c>
+      <c r="R35" s="17" t="n">
+        <v>1802</v>
       </c>
       <c r="S35" s="22" t="inlineStr">
         <is>
@@ -4029,55 +3703,43 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I36" s="17" t="inlineStr">
-        <is>
-          <t>2105.0</t>
-        </is>
-      </c>
-      <c r="J36" s="17" t="inlineStr">
-        <is>
-          <t>2105.0</t>
-        </is>
-      </c>
-      <c r="K36" s="17" t="inlineStr">
-        <is>
-          <t>2007.0</t>
-        </is>
+      <c r="I36" s="17" t="n">
+        <v>2105</v>
+      </c>
+      <c r="J36" s="17" t="n">
+        <v>2105</v>
+      </c>
+      <c r="K36" s="17" t="n">
+        <v>2007</v>
       </c>
       <c r="L36" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M36" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N36" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O36" s="17" t="inlineStr">
-        <is>
-          <t>1608</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O36" s="17" t="n">
+        <v>1608</v>
       </c>
       <c r="P36" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q36" s="17" t="inlineStr">
-        <is>
-          <t>1708.0</t>
-        </is>
-      </c>
-      <c r="R36" s="17" t="inlineStr">
-        <is>
-          <t>1608</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q36" s="17" t="n">
+        <v>1708</v>
+      </c>
+      <c r="R36" s="17" t="n">
+        <v>1708</v>
       </c>
       <c r="S36" s="22" t="inlineStr">
         <is>
@@ -4140,55 +3802,41 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I37" s="17" t="inlineStr">
-        <is>
-          <t>2111.0</t>
-        </is>
-      </c>
-      <c r="J37" s="17" t="inlineStr">
-        <is>
-          <t>2111.0</t>
-        </is>
-      </c>
-      <c r="K37" s="17" t="inlineStr">
-        <is>
-          <t>2102.0</t>
-        </is>
+      <c r="I37" s="17" t="n">
+        <v>2111</v>
+      </c>
+      <c r="J37" s="17" t="n">
+        <v>2111</v>
+      </c>
+      <c r="K37" s="17" t="n">
+        <v>2102</v>
       </c>
       <c r="L37" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M37" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N37" s="17" t="inlineStr">
-        <is>
-          <t>2011.0</t>
-        </is>
-      </c>
-      <c r="O37" s="17" t="inlineStr">
-        <is>
-          <t>1706</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N37" s="17" t="n">
+        <v>2011</v>
+      </c>
+      <c r="O37" s="17" t="n">
+        <v>1706</v>
       </c>
       <c r="P37" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q37" s="17" t="inlineStr">
-        <is>
-          <t>1809.0</t>
-        </is>
-      </c>
-      <c r="R37" s="17" t="inlineStr">
-        <is>
-          <t>1608</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q37" s="17" t="n">
+        <v>1809</v>
+      </c>
+      <c r="R37" s="17" t="n">
+        <v>1809</v>
       </c>
       <c r="S37" s="22" t="inlineStr">
         <is>
@@ -4254,55 +3902,43 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I38" s="17" t="inlineStr">
-        <is>
-          <t>2410.0</t>
-        </is>
-      </c>
-      <c r="J38" s="17" t="inlineStr">
-        <is>
-          <t>2410.0</t>
-        </is>
-      </c>
-      <c r="K38" s="17" t="inlineStr">
-        <is>
-          <t>2402.0</t>
-        </is>
+      <c r="I38" s="17" t="n">
+        <v>2410</v>
+      </c>
+      <c r="J38" s="17" t="n">
+        <v>2410</v>
+      </c>
+      <c r="K38" s="17" t="n">
+        <v>2402</v>
       </c>
       <c r="L38" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M38" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N38" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O38" s="17" t="inlineStr">
-        <is>
-          <t>1910</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O38" s="17" t="n">
+        <v>1910</v>
       </c>
       <c r="P38" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q38" s="17" t="inlineStr">
-        <is>
-          <t>2010.0</t>
-        </is>
-      </c>
-      <c r="R38" s="17" t="inlineStr">
-        <is>
-          <t>1910</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q38" s="17" t="n">
+        <v>2010</v>
+      </c>
+      <c r="R38" s="17" t="n">
+        <v>2010</v>
       </c>
       <c r="S38" s="22" t="inlineStr">
         <is>
@@ -4365,55 +4001,39 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I39" s="17" t="inlineStr">
-        <is>
-          <t>2303.0</t>
-        </is>
-      </c>
-      <c r="J39" s="17" t="inlineStr">
-        <is>
-          <t>2303.0</t>
-        </is>
-      </c>
-      <c r="K39" s="17" t="inlineStr">
-        <is>
-          <t>2210.0</t>
-        </is>
+      <c r="I39" s="17" t="n">
+        <v>2303</v>
+      </c>
+      <c r="J39" s="17" t="n">
+        <v>2303</v>
+      </c>
+      <c r="K39" s="17" t="n">
+        <v>2210</v>
       </c>
       <c r="L39" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M39" s="17" t="inlineStr">
-        <is>
-          <t>2208.0</t>
-        </is>
-      </c>
-      <c r="N39" s="17" t="inlineStr">
-        <is>
-          <t>2202.0</t>
-        </is>
-      </c>
-      <c r="O39" s="17" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M39" s="17" t="n">
+        <v>2208</v>
+      </c>
+      <c r="N39" s="17" t="n">
+        <v>2202</v>
+      </c>
+      <c r="O39" s="17" t="n">
+        <v>2000</v>
       </c>
       <c r="P39" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q39" s="17" t="inlineStr">
-        <is>
-          <t>2004.0</t>
-        </is>
-      </c>
-      <c r="R39" s="17" t="inlineStr">
-        <is>
-          <t>1804</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q39" s="17" t="n">
+        <v>2004</v>
+      </c>
+      <c r="R39" s="17" t="n">
+        <v>2004</v>
       </c>
       <c r="S39" s="22" t="inlineStr">
         <is>
@@ -4488,55 +4108,41 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I40" s="17" t="inlineStr">
-        <is>
-          <t>2604.0</t>
-        </is>
-      </c>
-      <c r="J40" s="17" t="inlineStr">
-        <is>
-          <t>2511.0</t>
-        </is>
-      </c>
-      <c r="K40" s="17" t="inlineStr">
-        <is>
-          <t>2503.0</t>
-        </is>
+      <c r="I40" s="17" t="n">
+        <v>2604</v>
+      </c>
+      <c r="J40" s="17" t="n">
+        <v>2511</v>
+      </c>
+      <c r="K40" s="17" t="n">
+        <v>2503</v>
       </c>
       <c r="L40" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M40" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N40" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O40" s="17" t="inlineStr">
-        <is>
-          <t>2105</t>
-        </is>
-      </c>
-      <c r="P40" s="17" t="inlineStr">
-        <is>
-          <t>1804.0</t>
-        </is>
-      </c>
-      <c r="Q40" s="17" t="inlineStr">
-        <is>
-          <t>2205.0</t>
-        </is>
-      </c>
-      <c r="R40" s="17" t="inlineStr">
-        <is>
-          <t>2105</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O40" s="17" t="n">
+        <v>2105</v>
+      </c>
+      <c r="P40" s="17" t="n">
+        <v>1804</v>
+      </c>
+      <c r="Q40" s="17" t="n">
+        <v>2205</v>
+      </c>
+      <c r="R40" s="17" t="n">
+        <v>2205</v>
       </c>
       <c r="S40" s="22" t="inlineStr">
         <is>
@@ -4599,55 +4205,47 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I41" s="17" t="inlineStr">
-        <is>
-          <t>2902.0</t>
-        </is>
+      <c r="I41" s="17" t="n">
+        <v>2902</v>
       </c>
       <c r="J41" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K41" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L41" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M41" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N41" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O41" s="17" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="P41" s="17" t="inlineStr">
-        <is>
-          <t>1709.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O41" s="17" t="n">
+        <v>2004</v>
+      </c>
+      <c r="P41" s="17" t="n">
+        <v>1709</v>
       </c>
       <c r="Q41" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R41" s="17" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R41" s="17" t="n">
+        <v>2004</v>
       </c>
       <c r="S41" s="22" t="inlineStr">
         <is>
@@ -4710,55 +4308,41 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I42" s="17" t="inlineStr">
-        <is>
-          <t>3000.0</t>
-        </is>
-      </c>
-      <c r="J42" s="17" t="inlineStr">
-        <is>
-          <t>3000.0</t>
-        </is>
-      </c>
-      <c r="K42" s="17" t="inlineStr">
-        <is>
-          <t>2700.0</t>
-        </is>
+      <c r="I42" s="17" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J42" s="17" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K42" s="17" t="n">
+        <v>2700</v>
       </c>
       <c r="L42" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M42" s="17" t="inlineStr">
-        <is>
-          <t>2801.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M42" s="17" t="n">
+        <v>2801</v>
       </c>
       <c r="N42" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O42" s="17" t="inlineStr">
-        <is>
-          <t>2204</t>
-        </is>
-      </c>
-      <c r="P42" s="17" t="inlineStr">
-        <is>
-          <t>2104.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O42" s="17" t="n">
+        <v>2204</v>
+      </c>
+      <c r="P42" s="17" t="n">
+        <v>2104</v>
       </c>
       <c r="Q42" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R42" s="17" t="inlineStr">
-        <is>
-          <t>2204</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R42" s="17" t="n">
+        <v>2204</v>
       </c>
       <c r="S42" s="22" t="inlineStr">
         <is>
@@ -4821,55 +4405,41 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I43" s="17" t="inlineStr">
-        <is>
-          <t>2506.0</t>
-        </is>
-      </c>
-      <c r="J43" s="17" t="inlineStr">
-        <is>
-          <t>2506.0</t>
-        </is>
-      </c>
-      <c r="K43" s="17" t="inlineStr">
-        <is>
-          <t>2401.0</t>
-        </is>
+      <c r="I43" s="17" t="n">
+        <v>2506</v>
+      </c>
+      <c r="J43" s="17" t="n">
+        <v>2506</v>
+      </c>
+      <c r="K43" s="17" t="n">
+        <v>2401</v>
       </c>
       <c r="L43" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M43" s="17" t="inlineStr">
-        <is>
-          <t>2500.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M43" s="17" t="n">
+        <v>2500</v>
       </c>
       <c r="N43" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O43" s="17" t="inlineStr">
-        <is>
-          <t>2110</t>
-        </is>
-      </c>
-      <c r="P43" s="17" t="inlineStr">
-        <is>
-          <t>2009.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O43" s="17" t="n">
+        <v>2110</v>
+      </c>
+      <c r="P43" s="17" t="n">
+        <v>2009</v>
       </c>
       <c r="Q43" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R43" s="17" t="inlineStr">
-        <is>
-          <t>2110</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R43" s="17" t="n">
+        <v>2110</v>
       </c>
       <c r="S43" s="22" t="inlineStr">
         <is>
@@ -4933,55 +4503,43 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I44" s="17" t="inlineStr">
-        <is>
-          <t>2510.0</t>
-        </is>
-      </c>
-      <c r="J44" s="17" t="inlineStr">
-        <is>
-          <t>2501.0</t>
-        </is>
-      </c>
-      <c r="K44" s="17" t="inlineStr">
-        <is>
-          <t>2304.0</t>
-        </is>
+      <c r="I44" s="17" t="n">
+        <v>2510</v>
+      </c>
+      <c r="J44" s="17" t="n">
+        <v>2501</v>
+      </c>
+      <c r="K44" s="17" t="n">
+        <v>2304</v>
       </c>
       <c r="L44" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M44" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N44" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O44" s="17" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="P44" s="17" t="inlineStr">
-        <is>
-          <t>2006.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O44" s="17" t="n">
+        <v>2004</v>
+      </c>
+      <c r="P44" s="17" t="n">
+        <v>2006</v>
       </c>
       <c r="Q44" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R44" s="17" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R44" s="17" t="n">
+        <v>2000</v>
       </c>
       <c r="S44" s="22" t="inlineStr">
         <is>
@@ -5046,55 +4604,43 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I45" s="17" t="inlineStr">
-        <is>
-          <t>2700.0</t>
-        </is>
-      </c>
-      <c r="J45" s="17" t="inlineStr">
-        <is>
-          <t>2700.0</t>
-        </is>
-      </c>
-      <c r="K45" s="17" t="inlineStr">
-        <is>
-          <t>2510.0</t>
-        </is>
+      <c r="I45" s="17" t="n">
+        <v>2700</v>
+      </c>
+      <c r="J45" s="17" t="n">
+        <v>2700</v>
+      </c>
+      <c r="K45" s="17" t="n">
+        <v>2510</v>
       </c>
       <c r="L45" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M45" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N45" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O45" s="17" t="inlineStr">
-        <is>
-          <t>2208</t>
-        </is>
-      </c>
-      <c r="P45" s="17" t="inlineStr">
-        <is>
-          <t>2101.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O45" s="17" t="n">
+        <v>2208</v>
+      </c>
+      <c r="P45" s="17" t="n">
+        <v>2101</v>
       </c>
       <c r="Q45" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R45" s="17" t="inlineStr">
-        <is>
-          <t>2208</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R45" s="17" t="n">
+        <v>2208</v>
       </c>
       <c r="S45" s="22" t="inlineStr">
         <is>
@@ -5157,55 +4703,43 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I46" s="17" t="inlineStr">
-        <is>
-          <t>2606.0</t>
-        </is>
-      </c>
-      <c r="J46" s="17" t="inlineStr">
-        <is>
-          <t>2606.0</t>
-        </is>
-      </c>
-      <c r="K46" s="17" t="inlineStr">
-        <is>
-          <t>2504.0</t>
-        </is>
+      <c r="I46" s="17" t="n">
+        <v>2606</v>
+      </c>
+      <c r="J46" s="17" t="n">
+        <v>2606</v>
+      </c>
+      <c r="K46" s="17" t="n">
+        <v>2504</v>
       </c>
       <c r="L46" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M46" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N46" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O46" s="17" t="inlineStr">
-        <is>
-          <t>2211</t>
-        </is>
-      </c>
-      <c r="P46" s="17" t="inlineStr">
-        <is>
-          <t>2201.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O46" s="17" t="n">
+        <v>2211</v>
+      </c>
+      <c r="P46" s="17" t="n">
+        <v>2201</v>
       </c>
       <c r="Q46" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R46" s="17" t="inlineStr">
-        <is>
-          <t>2211</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R46" s="17" t="n">
+        <v>2211</v>
       </c>
       <c r="S46" s="22" t="inlineStr">
         <is>
@@ -5270,55 +4804,43 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I47" s="17" t="inlineStr">
-        <is>
-          <t>2606.0</t>
-        </is>
-      </c>
-      <c r="J47" s="17" t="inlineStr">
-        <is>
-          <t>2606.0</t>
-        </is>
-      </c>
-      <c r="K47" s="17" t="inlineStr">
-        <is>
-          <t>2509.0</t>
-        </is>
+      <c r="I47" s="17" t="n">
+        <v>2606</v>
+      </c>
+      <c r="J47" s="17" t="n">
+        <v>2606</v>
+      </c>
+      <c r="K47" s="17" t="n">
+        <v>2509</v>
       </c>
       <c r="L47" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M47" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N47" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O47" s="17" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="P47" s="17" t="inlineStr">
-        <is>
-          <t>2000.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O47" s="17" t="n">
+        <v>2008</v>
+      </c>
+      <c r="P47" s="17" t="n">
+        <v>2000</v>
       </c>
       <c r="Q47" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R47" s="17" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R47" s="17" t="n">
+        <v>2008</v>
       </c>
       <c r="S47" s="22" t="inlineStr">
         <is>
@@ -5383,53 +4905,41 @@
       </c>
       <c r="I48" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J48" s="17" t="inlineStr">
-        <is>
-          <t>2505.0</t>
-        </is>
-      </c>
-      <c r="K48" s="17" t="inlineStr">
-        <is>
-          <t>2409.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J48" s="17" t="n">
+        <v>2505</v>
+      </c>
+      <c r="K48" s="17" t="n">
+        <v>2409</v>
       </c>
       <c r="L48" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M48" s="17" t="inlineStr">
-        <is>
-          <t>2406.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M48" s="17" t="n">
+        <v>2406</v>
       </c>
       <c r="N48" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O48" s="17" t="inlineStr">
-        <is>
-          <t>2209</t>
-        </is>
-      </c>
-      <c r="P48" s="17" t="inlineStr">
-        <is>
-          <t>2200.0</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O48" s="17" t="n">
+        <v>2209</v>
+      </c>
+      <c r="P48" s="17" t="n">
+        <v>2200</v>
       </c>
       <c r="Q48" s="17" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R48" s="17" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R48" s="17" t="n">
+        <v>2100</v>
       </c>
       <c r="S48" s="22" t="inlineStr">
         <is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04ef7c6c9ce6ee46/Documents/GitHub/pole-permit-spreadsheet/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_01F1E2751B34F48A8853E5D0054BCD30BA3EDF80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_20FBE2751B34F48A88E3E4811169D7308A36861B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>Wireline Joint Use - Appendix A</t>
   </si>
@@ -122,13 +122,6 @@
     <t>PSE</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nan
-</t>
-  </si>
-  <si>
     <t>pse_primary_riser: 3311</t>
   </si>
   <si>
@@ -138,8 +131,7 @@
     <t>452654-156957</t>
   </si>
   <si>
-    <t>nan
-VIOLATION-catv is 27" from drip_loop
+    <t>VIOLATION-catv is 27" from drip_loop
 VIOLATION-catv is 21" from streetlight
 VIOLATION-fiber is 36" from streetlight</t>
   </si>
@@ -150,11 +142,13 @@
     <t>3-1</t>
   </si>
   <si>
+    <t>nan</t>
+  </si>
+  <si>
     <t>Distribution</t>
   </si>
   <si>
-    <t>nan
-VIOLATION-fiber is 29" from drip_loop
+    <t>VIOLATION-fiber is 29" from drip_loop
 VIOLATION-catv is 39" from drip_loop
 VIOLATION-catv is 10" from fiber
 VIOLATION-catv second attach is 5" from catv
@@ -171,16 +165,14 @@
     <t>452594-156957</t>
   </si>
   <si>
-    <t>nan
-VIOLATION-fiber is 24" from drip_loop
+    <t>VIOLATION-fiber is 24" from drip_loop
 VIOLATION-catv is 37" from drip_loop</t>
   </si>
   <si>
     <t>5-1</t>
   </si>
   <si>
-    <t>nan
-VIOLATION-fiber is 39" from neutral_height
+    <t>VIOLATION-fiber is 39" from neutral_height
 VIOLATION-fiber is 39" from secondary_spool
 VIOLATION-fiber is 31" from secondary_riser
 VIOLATION-fiber is 30" from drip_loop
@@ -193,8 +185,7 @@
     <t>452550-156955</t>
   </si>
   <si>
-    <t>nan
-VIOLATION-fiber is 26" from drip_loop
+    <t>VIOLATION-fiber is 26" from drip_loop
 VIOLATION-catv is 35" from drip_loop
 VIOLATION-catv is 9" from fiber</t>
   </si>
@@ -205,8 +196,7 @@
     <t>452525-156956</t>
   </si>
   <si>
-    <t>nan
-VIOLATION-catv is 11" from fiber</t>
+    <t>VIOLATION-catv is 11" from fiber</t>
   </si>
   <si>
     <t>8-1</t>
@@ -215,8 +205,7 @@
     <t>452499-156952</t>
   </si>
   <si>
-    <t>nan
-VIOLATION-fiber is 39" from drip_loop
+    <t>VIOLATION-fiber is 39" from drip_loop
 VIOLATION-catv is 6" from fiber
 VIOLATION-telco is 11" from fiber
 VIOLATION-telco is 5" from catv</t>
@@ -228,8 +217,7 @@
     <t>452485-156949</t>
   </si>
   <si>
-    <t>nan
-VIOLATION-catv is 30" from secondary_riser
+    <t>VIOLATION-catv is 30" from secondary_riser
 VIOLATION-telco is 37" from secondary_riser
 VIOLATION-catv is 28" from secondary_spool
 VIOLATION-telco is 35" from secondary_spool
@@ -837,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1134,15 +1122,9 @@
       <c r="D10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="17">
         <v>3400</v>
       </c>
@@ -1164,22 +1146,18 @@
       <c r="P10" s="17">
         <v>2701</v>
       </c>
-      <c r="Q10" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="18" t="s">
+      <c r="Q10" s="23"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="23" t="s">
         <v>33</v>
-      </c>
-      <c r="S10" s="23" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>31</v>
@@ -1187,15 +1165,9 @@
       <c r="D11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="17">
         <v>2808</v>
       </c>
@@ -1220,37 +1192,29 @@
         <v>2305</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" s="18" t="s">
-        <v>33</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="R11" s="18"/>
       <c r="S11" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="17">
         <v>2702</v>
       </c>
@@ -1275,37 +1239,29 @@
         <v>2304</v>
       </c>
       <c r="Q12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" s="18"/>
+      <c r="S12" s="23" t="s">
         <v>42</v>
-      </c>
-      <c r="R12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>45</v>
-      </c>
       <c r="C13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="17">
         <v>2500</v>
       </c>
@@ -1330,37 +1286,29 @@
         <v>2102</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="R13" s="18" t="s">
-        <v>33</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="R13" s="18"/>
       <c r="S13" s="23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="17">
         <v>2608</v>
       </c>
@@ -1387,37 +1335,29 @@
         <v>2305</v>
       </c>
       <c r="Q14" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="R14" s="18" t="s">
-        <v>33</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="R14" s="18"/>
       <c r="S14" s="23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="C15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="17">
         <v>3008</v>
       </c>
@@ -1442,37 +1382,29 @@
         <v>2606</v>
       </c>
       <c r="Q15" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="R15" s="18" t="s">
-        <v>33</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="R15" s="18"/>
       <c r="S15" s="23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>53</v>
-      </c>
       <c r="C16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="17">
         <v>3006</v>
       </c>
@@ -1499,37 +1431,29 @@
         <v>2403</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="R16" s="18" t="s">
-        <v>33</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="R16" s="18"/>
       <c r="S16" s="23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>56</v>
-      </c>
       <c r="C17" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="17">
         <v>2910</v>
       </c>
@@ -1554,37 +1478,29 @@
         <v>2511</v>
       </c>
       <c r="Q17" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="R17" s="18" t="s">
-        <v>33</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="R17" s="18"/>
       <c r="S17" s="23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>59</v>
-      </c>
       <c r="C18" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17">
         <v>2508</v>
@@ -1605,13 +1521,11 @@
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="R18" s="18" t="s">
-        <v>33</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="R18" s="18"/>
       <c r="S18" s="23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4970,7 +4884,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>32</v>
@@ -4981,23 +4895,23 @@
         <v>31</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -1169,7 +1169,8 @@
       <c r="P11" s="17" t="n"/>
       <c r="Q11" s="23" t="inlineStr">
         <is>
-          <t>VIOLATION-catv is 27" from drip_loop</t>
+          <t>Dress Drip Loop
+Ground Streetlight</t>
         </is>
       </c>
       <c r="R11" s="18" t="inlineStr">
@@ -1184,12 +1185,12 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1252,11 +1253,8 @@
       <c r="P12" s="17" t="n"/>
       <c r="Q12" s="23" t="inlineStr">
         <is>
-          <t>VIOLATION-fiber is 29" from drip_loop
-VIOLATION-catv is 39" from drip_loop
-VIOLATION-catv is 10" from fiber
-VIOLATION-catv second attach is 5" from catv
-VIOLATION-telco is 8" from telco second attach</t>
+          <t>Dress Drip Loop
+Move CATV to: 22' 04"</t>
         </is>
       </c>
       <c r="R12" s="18" t="inlineStr">
@@ -1340,8 +1338,7 @@
       <c r="P13" s="17" t="n"/>
       <c r="Q13" s="23" t="inlineStr">
         <is>
-          <t>VIOLATION-fiber is 24" from drip_loop
-VIOLATION-catv is 37" from drip_loop</t>
+          <t>Dress Drip Loop</t>
         </is>
       </c>
       <c r="R13" s="18" t="inlineStr">
@@ -1415,10 +1412,10 @@
       </c>
       <c r="L14" s="17" t="n"/>
       <c r="M14" s="17" t="n">
+        <v>2206</v>
+      </c>
+      <c r="N14" s="17" t="n">
         <v>2106</v>
-      </c>
-      <c r="N14" s="17" t="n">
-        <v>2206</v>
       </c>
       <c r="O14" s="17" t="n">
         <v>2305</v>
@@ -1426,11 +1423,9 @@
       <c r="P14" s="17" t="n"/>
       <c r="Q14" s="23" t="inlineStr">
         <is>
-          <t>VIOLATION-fiber is 39" from neutral_height
-VIOLATION-fiber is 39" from secondary_spool
-VIOLATION-fiber is 31" from secondary_riser
-VIOLATION-fiber is 30" from drip_loop
-VIOLATION-telco is 11" from fiber</t>
+          <t>Move Fiber to: 22' 06"
+Move CATV to: 21' 06"
+Move TelCo to: 20' 06"</t>
         </is>
       </c>
       <c r="R14" s="18" t="inlineStr">
@@ -1513,9 +1508,8 @@
       <c r="P15" s="17" t="n"/>
       <c r="Q15" s="23" t="inlineStr">
         <is>
-          <t>VIOLATION-fiber is 26" from drip_loop
-VIOLATION-catv is 35" from drip_loop
-VIOLATION-catv is 9" from fiber</t>
+          <t>Dress Drip Loop
+Move Fiber to: 26' 10"</t>
         </is>
       </c>
       <c r="R15" s="18" t="inlineStr">
@@ -1600,7 +1594,7 @@
       <c r="P16" s="17" t="n"/>
       <c r="Q16" s="23" t="inlineStr">
         <is>
-          <t>VIOLATION-catv is 11" from fiber</t>
+          <t>Move CATV to: 23' 00"</t>
         </is>
       </c>
       <c r="R16" s="18" t="inlineStr">
@@ -1683,10 +1677,9 @@
       <c r="P17" s="17" t="n"/>
       <c r="Q17" s="23" t="inlineStr">
         <is>
-          <t>VIOLATION-fiber is 39" from drip_loop
-VIOLATION-catv is 6" from fiber
-VIOLATION-telco is 11" from fiber
-VIOLATION-telco is 5" from catv</t>
+          <t>Dress Drip Loop
+Move CATV to: 24' 11"
+Move TelCo to: 23' 11"</t>
         </is>
       </c>
       <c r="R17" s="18" t="inlineStr">
@@ -1767,13 +1760,8 @@
       <c r="P18" s="17" t="n"/>
       <c r="Q18" s="23" t="inlineStr">
         <is>
-          <t>VIOLATION-catv is 30" from secondary_riser
-VIOLATION-telco is 37" from secondary_riser
-VIOLATION-catv is 28" from secondary_spool
-VIOLATION-telco is 35" from secondary_spool
-VIOLATION-catv is 20" from drip_loop
-VIOLATION-telco is 27" from drip_loop
-VIOLATION-telco is 7" from catv</t>
+          <t>Move CATV to: 21' 08"
+Move TelCo to: 20' 08"</t>
         </is>
       </c>
       <c r="R18" s="18" t="inlineStr">

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -1088,12 +1088,7 @@
         <v>2701</v>
       </c>
       <c r="P10" s="17" t="n"/>
-      <c r="Q10" s="23" t="inlineStr">
-        <is>
-          <t>Extend Primary Riser to: 35' 00"
-An unrecognizable comment</t>
-        </is>
-      </c>
+      <c r="Q10" s="23" t="n"/>
       <c r="R10" s="18" t="inlineStr">
         <is>
           <t>nan</t>
@@ -1175,7 +1170,8 @@
       <c r="Q11" s="23" t="inlineStr">
         <is>
           <t>Dress Drip Loop
-Ground Streetlight</t>
+Ground Streetlight
+VIOLATION-catv is 27" from drip_loop</t>
         </is>
       </c>
       <c r="R11" s="18" t="inlineStr">
@@ -1259,7 +1255,8 @@
       <c r="Q12" s="23" t="inlineStr">
         <is>
           <t>Dress Drip Loop
-Move CATV to: 22' 04"</t>
+Move CATV to: 22' 04"
+VIOLATION-fiber is 29" from drip_loop</t>
         </is>
       </c>
       <c r="R12" s="18" t="inlineStr">
@@ -1343,7 +1340,9 @@
       <c r="P13" s="17" t="n"/>
       <c r="Q13" s="23" t="inlineStr">
         <is>
-          <t>Dress Drip Loop</t>
+          <t>Dress Drip Loop
+VIOLATION-fiber is 24" from drip_loop
+VIOLATION-catv is 37" from drip_loop</t>
         </is>
       </c>
       <c r="R13" s="18" t="inlineStr">
@@ -1514,7 +1513,9 @@
       <c r="Q15" s="23" t="inlineStr">
         <is>
           <t>Dress Drip Loop
-Move Fiber to: 26' 10"</t>
+Move Fiber to: 26' 10"
+VIOLATION-fiber is 22" from drip_loop
+VIOLATION-catv is 35" from drip_loop</t>
         </is>
       </c>
       <c r="R15" s="18" t="inlineStr">
@@ -1684,7 +1685,8 @@
         <is>
           <t>Dress Drip Loop
 Move CATV to: 24' 11"
-Move TelCo to: 23' 11"</t>
+Move TelCo to: 23' 11"
+VIOLATION-fiber is 39" from drip_loop</t>
         </is>
       </c>
       <c r="R17" s="18" t="inlineStr">
